--- a/results/Robustness checks.xlsx
+++ b/results/Robustness checks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estca\OneDrive\Documentos\Github\intellectual-capital-banks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1E06C-9DF3-471E-8901-598C469C5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F971AB3-FCB4-42EF-B997-CD864D395AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades financieras" sheetId="1" r:id="rId1"/>
+    <sheet name="Bancos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Variable</t>
   </si>
@@ -130,6 +131,42 @@
   </si>
   <si>
     <t>GLS 1</t>
+  </si>
+  <si>
+    <t>0.0071***</t>
+  </si>
+  <si>
+    <t>-0.0232*</t>
+  </si>
+  <si>
+    <t>0.0080***</t>
+  </si>
+  <si>
+    <t>0.0077***</t>
+  </si>
+  <si>
+    <t>0.0059***</t>
+  </si>
+  <si>
+    <t>0.0026*</t>
+  </si>
+  <si>
+    <t>0.0032*</t>
+  </si>
+  <si>
+    <t>0.0032**</t>
+  </si>
+  <si>
+    <t>0.0402*</t>
+  </si>
+  <si>
+    <t>0.0398***</t>
+  </si>
+  <si>
+    <t>0.0409***</t>
+  </si>
+  <si>
+    <t>-0.0182**</t>
   </si>
 </sst>
 </file>
@@ -153,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -189,14 +226,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +550,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -515,15 +588,18 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -532,22 +608,22 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>-1E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -558,22 +634,22 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-2E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>-2.8E-3</v>
       </c>
       <c r="H4" t="s">
@@ -584,13 +660,16 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -601,13 +680,16 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
@@ -618,13 +700,16 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
@@ -635,22 +720,22 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>-9.2999999999999992E-3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
@@ -661,22 +746,22 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>130</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>130</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>130</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>130</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>130</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>130</v>
       </c>
       <c r="H9" t="s">
@@ -687,12 +772,16 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.54959999999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.49619999999999997</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
       <c r="H10" t="s">
         <v>1</v>
       </c>
@@ -701,12 +790,16 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>1.35E-2</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -715,12 +808,16 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
       <c r="H12" t="s">
         <v>1</v>
       </c>
@@ -729,12 +826,313 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.37319999999999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0.80049999999999999</v>
       </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A4973-C29B-45A4-BEE3-B3B4651848FE}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1.01E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3">
+        <v>75</v>
+      </c>
+      <c r="G9" s="4">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
       <c r="H13" t="s">
         <v>1</v>
       </c>

--- a/results/Robustness checks.xlsx
+++ b/results/Robustness checks.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estca\OneDrive\Documentos\Github\intellectual-capital-banks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F971AB3-FCB4-42EF-B997-CD864D395AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1EC90C-F42D-434B-BC45-5AE31CDE8890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades financieras" sheetId="1" r:id="rId1"/>
     <sheet name="Bancos" sheetId="2" r:id="rId2"/>
+    <sheet name="Financieras" sheetId="3" r:id="rId3"/>
+    <sheet name="Cajas Municipales" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>Variable</t>
   </si>
@@ -167,6 +169,93 @@
   </si>
   <si>
     <t>-0.0182**</t>
+  </si>
+  <si>
+    <t>0.0099***</t>
+  </si>
+  <si>
+    <t>0.0092**</t>
+  </si>
+  <si>
+    <t>0.0123***</t>
+  </si>
+  <si>
+    <t>0.0141*</t>
+  </si>
+  <si>
+    <t>0.0077**</t>
+  </si>
+  <si>
+    <t>0.0075***</t>
+  </si>
+  <si>
+    <t>0.0119*</t>
+  </si>
+  <si>
+    <t>0.1088***</t>
+  </si>
+  <si>
+    <t>0.0443***</t>
+  </si>
+  <si>
+    <t>0.0415***</t>
+  </si>
+  <si>
+    <t>-0.0166*</t>
+  </si>
+  <si>
+    <t>-0.0352**</t>
+  </si>
+  <si>
+    <t>-0.0202***</t>
+  </si>
+  <si>
+    <t>0.0134***</t>
+  </si>
+  <si>
+    <t>0.0158***</t>
+  </si>
+  <si>
+    <t>-0.0067**</t>
+  </si>
+  <si>
+    <t>-0.0076***</t>
+  </si>
+  <si>
+    <t>-0.0066*</t>
+  </si>
+  <si>
+    <t>-0.0075***</t>
+  </si>
+  <si>
+    <t>-0.0062**</t>
+  </si>
+  <si>
+    <t>-0.0086***</t>
+  </si>
+  <si>
+    <t>0.0701**</t>
+  </si>
+  <si>
+    <t>0.0562**</t>
+  </si>
+  <si>
+    <t>0.0317**</t>
+  </si>
+  <si>
+    <t>0.0322***</t>
+  </si>
+  <si>
+    <t>0.0368***</t>
+  </si>
+  <si>
+    <t>-0.0130*</t>
+  </si>
+  <si>
+    <t>-0.0132*</t>
+  </si>
+  <si>
+    <t>-0.0183***</t>
   </si>
 </sst>
 </file>
@@ -259,11 +348,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -549,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,18 +676,16 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -608,22 +694,22 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>-1E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -634,22 +720,22 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>2.3E-3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>-2E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>-2.8E-3</v>
       </c>
       <c r="H4" t="s">
@@ -660,16 +746,13 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -680,16 +763,13 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1.5E-3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
@@ -700,16 +780,13 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
@@ -720,22 +797,22 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-9.2999999999999992E-3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
@@ -746,22 +823,22 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>130</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>130</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>130</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>130</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>130</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>130</v>
       </c>
       <c r="H9" t="s">
@@ -772,16 +849,13 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0.54959999999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>0.49619999999999997</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" t="s">
         <v>1</v>
       </c>
@@ -790,16 +864,13 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>7.6E-3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>1.35E-2</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -808,16 +879,13 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>1</v>
       </c>
@@ -826,16 +894,16 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.37319999999999998</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.80049999999999999</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" t="s">
         <v>1</v>
       </c>
@@ -850,7 +918,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,18 +957,16 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -909,22 +975,22 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>1E-4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1E-4</v>
       </c>
       <c r="H3" t="s">
@@ -935,22 +1001,22 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1.9E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>-1.29E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>-2.0899999999999998E-2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
@@ -961,16 +1027,13 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H5" t="s">
@@ -981,16 +1044,13 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
@@ -1001,16 +1061,13 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
@@ -1021,22 +1078,22 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>-1.01E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H8" t="s">
@@ -1047,22 +1104,22 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>75</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>60</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>75</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>75</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>75</v>
       </c>
       <c r="H9" t="s">
@@ -1073,16 +1130,13 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0.77339999999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>0.78779999999999994</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" t="s">
         <v>1</v>
       </c>
@@ -1091,16 +1145,13 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -1109,16 +1160,13 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>1</v>
       </c>
@@ -1127,15 +1175,494 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" t="s">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48768B98-6DE5-4874-86AE-EB1267C022D4}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="E3">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="F3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E4">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E8">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1.23E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFD144-0887-46F4-BEB7-B3B1E53BC7EC}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="D4">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="F4">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="E5">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-6.6E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7.46E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.9526</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
